--- a/Códigos/preprocesado/datos_dauco_solo.xlsx
+++ b/Códigos/preprocesado/datos_dauco_solo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN116"/>
+  <dimension ref="A1:BO116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,330 +436,335 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>MenorID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A102</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>A105</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>A132</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>A140</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>A142</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>A32</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>A325</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>A326</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>A68</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>A69</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>A99</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>C140</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>C150</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>C174</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>C194</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>C195</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>C201</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>C287</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>C56</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>C80</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>C92</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>L121</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>L148</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>L167</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>L241</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>L243</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>L351</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>L354</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>L37</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>MF120</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>MF59</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>MF60</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>MF78</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>MG171</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>MG172</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>MG19</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>MG195</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>MG64</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>MG72</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>S113</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>S124</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>S126</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>S142</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>S17</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>S18</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>S19</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>S194</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>S20</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>S205</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>S22</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>S309</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>S37</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>S42</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>S5</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>S74</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>S76</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>S79</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>S9</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>S91</t>
         </is>
@@ -767,7 +772,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -800,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -827,19 +832,19 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
@@ -854,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -896,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -908,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>1</v>
@@ -920,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>1</v>
@@ -932,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>1</v>
@@ -962,12 +967,15 @@
         <v>1</v>
       </c>
       <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1162,12 +1170,15 @@
         <v>1</v>
       </c>
       <c r="BN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1236,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1251,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1362,12 +1373,15 @@
         <v>1</v>
       </c>
       <c r="BN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1454,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>1</v>
@@ -1484,25 +1498,25 @@
         <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1511,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
         <v>1</v>
@@ -1523,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
         <v>1</v>
@@ -1562,18 +1576,21 @@
         <v>1</v>
       </c>
       <c r="BN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1600,16 +1617,16 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1633,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
@@ -1669,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
@@ -1687,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -1732,16 +1749,16 @@
         <v>1</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
         <v>1</v>
@@ -1762,12 +1779,15 @@
         <v>1</v>
       </c>
       <c r="BN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1791,13 +1811,13 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1845,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1899,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
         <v>1</v>
@@ -1923,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
         <v>1</v>
@@ -1935,45 +1955,48 @@
         <v>1</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>1</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -2000,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -2027,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -2087,19 +2110,19 @@
         <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2117,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -2132,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>1</v>
@@ -2153,21 +2176,24 @@
         <v>1</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>1</v>
       </c>
       <c r="BN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2254,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
@@ -2269,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
@@ -2320,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>1</v>
@@ -2350,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
         <v>1</v>
@@ -2362,12 +2388,15 @@
         <v>1</v>
       </c>
       <c r="BN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2562,12 +2591,15 @@
         <v>1</v>
       </c>
       <c r="BN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2606,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2687,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2762,24 +2794,27 @@
         <v>1</v>
       </c>
       <c r="BN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>412</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -2800,13 +2835,13 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2845,16 +2880,16 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>1</v>
@@ -2899,16 +2934,16 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>1</v>
@@ -2962,12 +2997,15 @@
         <v>1</v>
       </c>
       <c r="BN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -3000,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -3054,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -3075,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
@@ -3093,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -3162,12 +3200,15 @@
         <v>1</v>
       </c>
       <c r="BN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>443</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -3245,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -3362,12 +3403,15 @@
         <v>1</v>
       </c>
       <c r="BN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>470</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -3376,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3385,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -3562,12 +3606,15 @@
         <v>1</v>
       </c>
       <c r="BN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -3627,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
@@ -3654,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3687,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -3726,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>1</v>
@@ -3753,21 +3800,24 @@
         <v>1</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
         <v>1</v>
       </c>
       <c r="BN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -3962,12 +4012,15 @@
         <v>1</v>
       </c>
       <c r="BN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>545</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -4111,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" t="n">
         <v>1</v>
@@ -4162,12 +4215,15 @@
         <v>1</v>
       </c>
       <c r="BN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>584</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4332,13 +4388,13 @@
         <v>1</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" t="n">
         <v>1</v>
@@ -4362,12 +4418,15 @@
         <v>1</v>
       </c>
       <c r="BN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>585</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -4376,10 +4435,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -4388,19 +4447,19 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -4487,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -4508,13 +4567,13 @@
         <v>1</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4556,18 +4615,21 @@
         <v>1</v>
       </c>
       <c r="BL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>727</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -4591,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -4618,13 +4680,13 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
@@ -4633,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -4648,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -4657,22 +4719,22 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
@@ -4687,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -4720,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
         <v>1</v>
@@ -4732,19 +4794,19 @@
         <v>1</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
         <v>1</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" t="n">
         <v>1</v>
@@ -4762,12 +4824,15 @@
         <v>1</v>
       </c>
       <c r="BN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>736</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4785,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -4830,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
         <v>1</v>
@@ -4854,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4869,25 +4934,25 @@
         <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>1</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
         <v>1</v>
@@ -4902,25 +4967,25 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
         <v>1</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
         <v>1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" t="n">
         <v>0</v>
@@ -4929,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
         <v>1</v>
@@ -4956,18 +5021,21 @@
         <v>1</v>
       </c>
       <c r="BL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -5006,10 +5074,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -5033,10 +5101,10 @@
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>1</v>
@@ -5111,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -5135,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" t="n">
         <v>1</v>
@@ -5162,18 +5230,21 @@
         <v>1</v>
       </c>
       <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -5197,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -5260,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -5272,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -5362,12 +5433,15 @@
         <v>1</v>
       </c>
       <c r="BN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5433,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
@@ -5562,12 +5636,15 @@
         <v>1</v>
       </c>
       <c r="BN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5624,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -5762,12 +5839,15 @@
         <v>1</v>
       </c>
       <c r="BN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5782,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -5797,10 +5877,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -5962,12 +6042,15 @@
         <v>1</v>
       </c>
       <c r="BN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -6087,13 +6170,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>1</v>
@@ -6162,12 +6245,15 @@
         <v>1</v>
       </c>
       <c r="BN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -6362,12 +6448,15 @@
         <v>1</v>
       </c>
       <c r="BN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -6562,12 +6651,15 @@
         <v>1</v>
       </c>
       <c r="BN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>754</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -6588,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -6600,16 +6692,16 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -6633,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>1</v>
@@ -6654,10 +6746,10 @@
         <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>1</v>
@@ -6717,10 +6809,10 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" t="n">
         <v>1</v>
@@ -6750,10 +6842,10 @@
         <v>1</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" t="n">
         <v>1</v>
@@ -6762,12 +6854,15 @@
         <v>1</v>
       </c>
       <c r="BN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -6800,19 +6895,19 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -6827,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
@@ -6839,10 +6934,10 @@
         <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>1</v>
@@ -6851,13 +6946,13 @@
         <v>1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
@@ -6878,28 +6973,28 @@
         <v>1</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
         <v>1</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -6908,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" t="n">
         <v>1</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" t="n">
         <v>1</v>
@@ -6950,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" t="n">
         <v>1</v>
@@ -6962,21 +7057,24 @@
         <v>1</v>
       </c>
       <c r="BN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -6997,13 +7095,13 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -7015,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -7036,10 +7134,10 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>1</v>
@@ -7057,10 +7155,10 @@
         <v>1</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
@@ -7072,25 +7170,25 @@
         <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -7108,22 +7206,22 @@
         <v>1</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="n">
         <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
         <v>1</v>
@@ -7156,18 +7254,21 @@
         <v>1</v>
       </c>
       <c r="BL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -7176,10 +7277,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -7200,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -7221,10 +7322,10 @@
         <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>1</v>
@@ -7287,19 +7388,19 @@
         <v>1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7320,10 +7421,10 @@
         <v>1</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" t="n">
         <v>1</v>
@@ -7356,18 +7457,21 @@
         <v>1</v>
       </c>
       <c r="BL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>762</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -7406,10 +7510,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -7463,16 +7567,16 @@
         <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>1</v>
@@ -7493,10 +7597,10 @@
         <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
         <v>1</v>
@@ -7514,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
         <v>1</v>
@@ -7532,13 +7636,13 @@
         <v>1</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" t="n">
         <v>1</v>
@@ -7553,21 +7657,24 @@
         <v>1</v>
       </c>
       <c r="BK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
         <v>0</v>
       </c>
       <c r="BM35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -7648,10 +7755,10 @@
         <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -7762,12 +7869,15 @@
         <v>1</v>
       </c>
       <c r="BN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -7821,16 +7931,16 @@
         <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -7962,15 +8072,18 @@
         <v>1</v>
       </c>
       <c r="BN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -8162,12 +8275,15 @@
         <v>1</v>
       </c>
       <c r="BN38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -8287,22 +8403,22 @@
         <v>1</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" t="n">
         <v>1</v>
@@ -8356,18 +8472,21 @@
         <v>1</v>
       </c>
       <c r="BL39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -8469,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
         <v>1</v>
@@ -8562,12 +8681,15 @@
         <v>1</v>
       </c>
       <c r="BN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -8762,21 +8884,24 @@
         <v>1</v>
       </c>
       <c r="BN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>774</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -8794,13 +8919,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -8818,10 +8943,10 @@
         <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -8869,10 +8994,10 @@
         <v>1</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
         <v>1</v>
@@ -8887,22 +9012,22 @@
         <v>1</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42" t="n">
         <v>1</v>
@@ -8917,10 +9042,10 @@
         <v>1</v>
       </c>
       <c r="AY42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" t="n">
         <v>1</v>
@@ -8962,12 +9087,15 @@
         <v>1</v>
       </c>
       <c r="BN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>826</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -8991,10 +9119,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -9072,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
         <v>1</v>
@@ -9087,10 +9215,10 @@
         <v>1</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -9108,10 +9236,10 @@
         <v>1</v>
       </c>
       <c r="AV43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
         <v>1</v>
@@ -9144,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="BH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ43" t="n">
         <v>1</v>
@@ -9162,12 +9290,15 @@
         <v>1</v>
       </c>
       <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>829</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -9200,10 +9331,10 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -9293,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
         <v>1</v>
@@ -9311,28 +9442,28 @@
         <v>1</v>
       </c>
       <c r="AW44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY44" t="n">
         <v>1</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" t="n">
         <v>1</v>
       </c>
       <c r="BC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE44" t="n">
         <v>1</v>
@@ -9362,12 +9493,15 @@
         <v>1</v>
       </c>
       <c r="BN44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>836</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -9391,16 +9525,16 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -9418,10 +9552,10 @@
         <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -9493,10 +9627,10 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="n">
         <v>1</v>
@@ -9520,10 +9654,10 @@
         <v>1</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" t="n">
         <v>1</v>
@@ -9535,10 +9669,10 @@
         <v>1</v>
       </c>
       <c r="BE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG45" t="n">
         <v>1</v>
@@ -9556,24 +9690,27 @@
         <v>1</v>
       </c>
       <c r="BL45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -9594,16 +9731,16 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -9651,13 +9788,13 @@
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
         <v>1</v>
@@ -9687,22 +9824,22 @@
         <v>1</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
         <v>1</v>
@@ -9714,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="AX46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
         <v>1</v>
@@ -9744,10 +9881,10 @@
         <v>1</v>
       </c>
       <c r="BH46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ46" t="n">
         <v>1</v>
@@ -9762,12 +9899,15 @@
         <v>1</v>
       </c>
       <c r="BN46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -9827,10 +9967,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
@@ -9854,10 +9994,10 @@
         <v>1</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
         <v>1</v>
@@ -9893,10 +10033,10 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
         <v>1</v>
@@ -9911,19 +10051,19 @@
         <v>1</v>
       </c>
       <c r="AW47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" t="n">
         <v>1</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" t="n">
         <v>1</v>
@@ -9935,10 +10075,10 @@
         <v>1</v>
       </c>
       <c r="BE47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" t="n">
         <v>1</v>
@@ -9956,24 +10096,27 @@
         <v>1</v>
       </c>
       <c r="BL47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>870</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -10000,28 +10143,28 @@
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -10033,10 +10176,10 @@
         <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>1</v>
@@ -10054,10 +10197,10 @@
         <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
         <v>1</v>
@@ -10099,19 +10242,19 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" t="n">
         <v>1</v>
       </c>
       <c r="AV48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" t="n">
         <v>1</v>
@@ -10120,13 +10263,13 @@
         <v>1</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" t="n">
         <v>0</v>
       </c>
       <c r="BB48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" t="n">
         <v>1</v>
@@ -10162,18 +10305,21 @@
         <v>1</v>
       </c>
       <c r="BN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>875</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -10194,10 +10340,10 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -10254,10 +10400,10 @@
         <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
         <v>1</v>
@@ -10296,13 +10442,13 @@
         <v>1</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -10362,12 +10508,15 @@
         <v>1</v>
       </c>
       <c r="BN49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>921</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -10385,13 +10534,13 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -10400,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -10451,13 +10600,13 @@
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
         <v>1</v>
@@ -10466,10 +10615,10 @@
         <v>1</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
         <v>1</v>
@@ -10484,10 +10633,10 @@
         <v>1</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" t="n">
         <v>1</v>
@@ -10511,10 +10660,10 @@
         <v>1</v>
       </c>
       <c r="AW50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY50" t="n">
         <v>1</v>
@@ -10562,12 +10711,15 @@
         <v>1</v>
       </c>
       <c r="BN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>926</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -10588,16 +10740,16 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -10633,10 +10785,10 @@
         <v>1</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>1</v>
@@ -10693,10 +10845,10 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
         <v>1</v>
@@ -10762,24 +10914,27 @@
         <v>1</v>
       </c>
       <c r="BN51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>930</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -10791,16 +10946,16 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -10809,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -10833,10 +10988,10 @@
         <v>1</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
         <v>1</v>
@@ -10848,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -10860,19 +11015,19 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>1</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
         <v>1</v>
@@ -10884,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" t="n">
         <v>1</v>
@@ -10899,19 +11054,19 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" t="n">
         <v>1</v>
       </c>
       <c r="AV52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
         <v>1</v>
@@ -10920,10 +11075,10 @@
         <v>1</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" t="n">
         <v>1</v>
@@ -10932,10 +11087,10 @@
         <v>1</v>
       </c>
       <c r="BD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52" t="n">
         <v>1</v>
@@ -10944,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="BH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI52" t="n">
         <v>0</v>
@@ -10953,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="BK52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL52" t="n">
         <v>1</v>
@@ -10962,27 +11117,30 @@
         <v>1</v>
       </c>
       <c r="BN52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>934</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -10994,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -11003,13 +11161,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -11018,13 +11176,13 @@
         <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>1</v>
@@ -11039,10 +11197,10 @@
         <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
         <v>1</v>
@@ -11051,19 +11209,19 @@
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
         <v>1</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -11072,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
@@ -11081,34 +11239,34 @@
         <v>1</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" t="n">
         <v>0</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" t="n">
         <v>1</v>
@@ -11120,22 +11278,22 @@
         <v>1</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53" t="n">
         <v>1</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD53" t="n">
         <v>0</v>
       </c>
       <c r="BE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" t="n">
         <v>1</v>
@@ -11144,10 +11302,10 @@
         <v>1</v>
       </c>
       <c r="BH53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53" t="n">
         <v>1</v>
@@ -11156,24 +11314,27 @@
         <v>1</v>
       </c>
       <c r="BL53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>1018</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -11287,10 +11448,10 @@
         <v>1</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -11362,12 +11523,15 @@
         <v>1</v>
       </c>
       <c r="BN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -11400,16 +11564,16 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -11487,16 +11651,16 @@
         <v>1</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" t="n">
         <v>1</v>
@@ -11541,19 +11705,19 @@
         <v>1</v>
       </c>
       <c r="BG55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI55" t="n">
         <v>1</v>
       </c>
       <c r="BJ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55" t="n">
         <v>1</v>
@@ -11562,12 +11726,15 @@
         <v>1</v>
       </c>
       <c r="BN55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>1036</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -11672,10 +11839,10 @@
         <v>1</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
         <v>1</v>
@@ -11687,10 +11854,10 @@
         <v>1</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" t="n">
         <v>1</v>
@@ -11699,10 +11866,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" t="n">
         <v>1</v>
@@ -11720,10 +11887,10 @@
         <v>1</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" t="n">
         <v>1</v>
@@ -11741,33 +11908,36 @@
         <v>1</v>
       </c>
       <c r="BG56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56" t="n">
         <v>0</v>
       </c>
       <c r="BI56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>1047</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -11962,12 +12132,15 @@
         <v>1</v>
       </c>
       <c r="BN57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>1068</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -11994,22 +12167,22 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -12027,10 +12200,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -12054,10 +12227,10 @@
         <v>1</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
         <v>1</v>
@@ -12069,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" t="n">
         <v>0</v>
@@ -12081,16 +12254,16 @@
         <v>0</v>
       </c>
       <c r="AM58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" t="n">
         <v>1</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -12099,10 +12272,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58" t="n">
         <v>1</v>
@@ -12111,10 +12284,10 @@
         <v>1</v>
       </c>
       <c r="AW58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" t="n">
         <v>1</v>
@@ -12123,10 +12296,10 @@
         <v>1</v>
       </c>
       <c r="BA58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58" t="n">
         <v>1</v>
@@ -12153,7 +12326,7 @@
         <v>1</v>
       </c>
       <c r="BK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL58" t="n">
         <v>0</v>
@@ -12162,12 +12335,15 @@
         <v>0</v>
       </c>
       <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>1070</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -12176,10 +12352,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -12233,10 +12409,10 @@
         <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
@@ -12251,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>1</v>
@@ -12287,10 +12463,10 @@
         <v>1</v>
       </c>
       <c r="AO59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -12299,10 +12475,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12335,10 +12511,10 @@
         <v>1</v>
       </c>
       <c r="BE59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" t="n">
         <v>1</v>
@@ -12362,12 +12538,15 @@
         <v>1</v>
       </c>
       <c r="BN59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>1078</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -12427,10 +12606,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -12454,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
         <v>1</v>
@@ -12493,10 +12672,10 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" t="n">
         <v>1</v>
@@ -12556,18 +12735,21 @@
         <v>1</v>
       </c>
       <c r="BL60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>1079</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -12627,16 +12809,16 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
         <v>1</v>
@@ -12687,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -12699,10 +12881,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU61" t="n">
         <v>1</v>
@@ -12711,10 +12893,10 @@
         <v>1</v>
       </c>
       <c r="AW61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" t="n">
         <v>1</v>
@@ -12744,10 +12926,10 @@
         <v>1</v>
       </c>
       <c r="BH61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ61" t="n">
         <v>1</v>
@@ -12756,18 +12938,21 @@
         <v>1</v>
       </c>
       <c r="BL61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>1082</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -12800,16 +12985,16 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -12866,10 +13051,10 @@
         <v>1</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>1</v>
@@ -12911,10 +13096,10 @@
         <v>1</v>
       </c>
       <c r="AW62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" t="n">
         <v>1</v>
@@ -12962,12 +13147,15 @@
         <v>1</v>
       </c>
       <c r="BN62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>1083</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -12994,10 +13182,10 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
@@ -13054,10 +13242,10 @@
         <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
         <v>1</v>
@@ -13066,10 +13254,10 @@
         <v>1</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
         <v>1</v>
@@ -13078,19 +13266,19 @@
         <v>1</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
         <v>1</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -13102,19 +13290,19 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" t="n">
         <v>1</v>
       </c>
       <c r="AW63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" t="n">
         <v>1</v>
@@ -13150,24 +13338,27 @@
         <v>1</v>
       </c>
       <c r="BJ63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>1085</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -13200,10 +13391,10 @@
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -13287,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -13362,18 +13553,21 @@
         <v>1</v>
       </c>
       <c r="BN64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>1086</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -13400,10 +13594,10 @@
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
@@ -13427,10 +13621,10 @@
         <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
         <v>1</v>
@@ -13484,19 +13678,19 @@
         <v>1</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS65" t="n">
         <v>1</v>
@@ -13514,22 +13708,22 @@
         <v>1</v>
       </c>
       <c r="AX65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" t="n">
         <v>1</v>
@@ -13544,13 +13738,13 @@
         <v>1</v>
       </c>
       <c r="BH65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK65" t="n">
         <v>0</v>
@@ -13559,15 +13753,18 @@
         <v>0</v>
       </c>
       <c r="BM65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>1094</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -13627,10 +13824,10 @@
         <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>1</v>
@@ -13651,10 +13848,10 @@
         <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
         <v>1</v>
@@ -13687,19 +13884,19 @@
         <v>1</v>
       </c>
       <c r="AO66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -13732,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="BD66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE66" t="n">
         <v>0</v>
@@ -13744,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="BH66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" t="n">
         <v>1</v>
@@ -13762,12 +13959,15 @@
         <v>1</v>
       </c>
       <c r="BN66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -13899,10 +14099,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" t="n">
         <v>1</v>
@@ -13911,22 +14111,22 @@
         <v>1</v>
       </c>
       <c r="AW67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY67" t="n">
         <v>1</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA67" t="n">
         <v>0</v>
       </c>
       <c r="BB67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" t="n">
         <v>1</v>
@@ -13956,18 +14156,21 @@
         <v>1</v>
       </c>
       <c r="BL67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>1101</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -14027,10 +14230,10 @@
         <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
@@ -14051,10 +14254,10 @@
         <v>1</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>1</v>
@@ -14087,22 +14290,22 @@
         <v>1</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" t="n">
         <v>1</v>
@@ -14120,10 +14323,10 @@
         <v>1</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" t="n">
         <v>1</v>
@@ -14156,18 +14359,21 @@
         <v>1</v>
       </c>
       <c r="BL68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -14206,10 +14412,10 @@
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -14251,13 +14457,13 @@
         <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>1</v>
@@ -14266,13 +14472,13 @@
         <v>1</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" t="n">
         <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
         <v>1</v>
@@ -14281,28 +14487,28 @@
         <v>1</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU69" t="n">
         <v>1</v>
@@ -14320,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" t="n">
         <v>1</v>
@@ -14353,21 +14559,24 @@
         <v>1</v>
       </c>
       <c r="BK69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM69" t="n">
         <v>1</v>
       </c>
       <c r="BN69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>1106</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -14397,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -14406,16 +14615,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>1</v>
@@ -14427,16 +14636,16 @@
         <v>1</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
         <v>1</v>
@@ -14481,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="AM70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70" t="n">
         <v>0</v>
@@ -14490,16 +14699,16 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14514,10 +14723,10 @@
         <v>1</v>
       </c>
       <c r="AX70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ70" t="n">
         <v>1</v>
@@ -14553,21 +14762,24 @@
         <v>1</v>
       </c>
       <c r="BK70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM70" t="n">
         <v>1</v>
       </c>
       <c r="BN70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>1107</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -14651,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
         <v>1</v>
@@ -14687,16 +14899,16 @@
         <v>1</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS71" t="n">
         <v>1</v>
@@ -14735,10 +14947,10 @@
         <v>1</v>
       </c>
       <c r="BE71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG71" t="n">
         <v>1</v>
@@ -14762,12 +14974,15 @@
         <v>1</v>
       </c>
       <c r="BN71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>1258</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -14854,10 +15069,10 @@
         <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
         <v>1</v>
@@ -14869,10 +15084,10 @@
         <v>1</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK72" t="n">
         <v>1</v>
@@ -14887,16 +15102,16 @@
         <v>1</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS72" t="n">
         <v>1</v>
@@ -14920,19 +15135,19 @@
         <v>1</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA72" t="n">
         <v>0</v>
       </c>
       <c r="BB72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE72" t="n">
         <v>1</v>
@@ -14950,30 +15165,33 @@
         <v>1</v>
       </c>
       <c r="BJ72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM72" t="n">
         <v>0</v>
       </c>
       <c r="BN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>1259</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -15000,10 +15218,10 @@
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
@@ -15018,19 +15236,19 @@
         <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
         <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
         <v>1</v>
@@ -15051,13 +15269,13 @@
         <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
         <v>1</v>
@@ -15087,10 +15305,10 @@
         <v>1</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -15099,10 +15317,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU73" t="n">
         <v>1</v>
@@ -15120,10 +15338,10 @@
         <v>1</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB73" t="n">
         <v>1</v>
@@ -15150,24 +15368,27 @@
         <v>1</v>
       </c>
       <c r="BJ73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>1261</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -15323,10 +15544,10 @@
         <v>1</v>
       </c>
       <c r="BA74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC74" t="n">
         <v>1</v>
@@ -15362,12 +15583,15 @@
         <v>1</v>
       </c>
       <c r="BN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>1262</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -15382,10 +15606,10 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -15397,19 +15621,19 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -15418,19 +15642,19 @@
         <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
         <v>1</v>
@@ -15451,10 +15675,10 @@
         <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
         <v>1</v>
@@ -15481,28 +15705,28 @@
         <v>1</v>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP75" t="n">
         <v>0</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS75" t="n">
         <v>0</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU75" t="n">
         <v>1</v>
@@ -15532,16 +15756,16 @@
         <v>1</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH75" t="n">
         <v>1</v>
@@ -15550,10 +15774,10 @@
         <v>1</v>
       </c>
       <c r="BJ75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL75" t="n">
         <v>1</v>
@@ -15562,12 +15786,15 @@
         <v>1</v>
       </c>
       <c r="BN75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>1263</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -15633,10 +15860,10 @@
         <v>1</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
         <v>1</v>
@@ -15654,10 +15881,10 @@
         <v>1</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF76" t="n">
         <v>1</v>
@@ -15693,16 +15920,16 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU76" t="n">
         <v>1</v>
@@ -15711,10 +15938,10 @@
         <v>1</v>
       </c>
       <c r="AW76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY76" t="n">
         <v>1</v>
@@ -15762,12 +15989,15 @@
         <v>1</v>
       </c>
       <c r="BN76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>1264</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -15806,10 +16036,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -15854,10 +16084,10 @@
         <v>1</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
         <v>1</v>
@@ -15896,13 +16126,13 @@
         <v>1</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77" t="n">
         <v>0</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU77" t="n">
         <v>1</v>
@@ -15962,12 +16192,15 @@
         <v>1</v>
       </c>
       <c r="BN77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>1265</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -16006,10 +16239,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -16102,10 +16335,10 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV78" t="n">
         <v>1</v>
@@ -16162,12 +16395,15 @@
         <v>1</v>
       </c>
       <c r="BN78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>1272</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -16287,16 +16523,16 @@
         <v>1</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS79" t="n">
         <v>1</v>
@@ -16323,10 +16559,10 @@
         <v>1</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC79" t="n">
         <v>1</v>
@@ -16362,12 +16598,15 @@
         <v>1</v>
       </c>
       <c r="BN79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>1273</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -16493,13 +16732,13 @@
         <v>1</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -16562,12 +16801,15 @@
         <v>1</v>
       </c>
       <c r="BN80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>1274</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -16654,10 +16896,10 @@
         <v>1</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF81" t="n">
         <v>1</v>
@@ -16720,10 +16962,10 @@
         <v>1</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB81" t="n">
         <v>1</v>
@@ -16750,10 +16992,10 @@
         <v>1</v>
       </c>
       <c r="BJ81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL81" t="n">
         <v>1</v>
@@ -16762,12 +17004,15 @@
         <v>1</v>
       </c>
       <c r="BN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>1275</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -16827,16 +17072,16 @@
         <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
         <v>1</v>
@@ -16854,10 +17099,10 @@
         <v>1</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
         <v>1</v>
@@ -16887,22 +17132,22 @@
         <v>1</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
       </c>
       <c r="AR82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS82" t="n">
         <v>0</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU82" t="n">
         <v>1</v>
@@ -16938,10 +17183,10 @@
         <v>1</v>
       </c>
       <c r="BF82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH82" t="n">
         <v>1</v>
@@ -16950,10 +17195,10 @@
         <v>1</v>
       </c>
       <c r="BJ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL82" t="n">
         <v>1</v>
@@ -16962,18 +17207,21 @@
         <v>1</v>
       </c>
       <c r="BN82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>1276</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -16982,10 +17230,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -16994,10 +17242,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
@@ -17006,10 +17254,10 @@
         <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -17027,16 +17275,16 @@
         <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="n">
         <v>1</v>
@@ -17051,13 +17299,13 @@
         <v>1</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
         <v>1</v>
@@ -17087,22 +17335,22 @@
         <v>1</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS83" t="n">
         <v>0</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU83" t="n">
         <v>1</v>
@@ -17117,10 +17365,10 @@
         <v>1</v>
       </c>
       <c r="AY83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA83" t="n">
         <v>1</v>
@@ -17138,13 +17386,13 @@
         <v>1</v>
       </c>
       <c r="BF83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG83" t="n">
         <v>0</v>
       </c>
       <c r="BH83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI83" t="n">
         <v>1</v>
@@ -17162,12 +17410,15 @@
         <v>1</v>
       </c>
       <c r="BN83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>1277</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -17188,10 +17439,10 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -17362,12 +17613,15 @@
         <v>1</v>
       </c>
       <c r="BN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>1279</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -17454,10 +17708,10 @@
         <v>1</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
         <v>1</v>
@@ -17562,12 +17816,15 @@
         <v>1</v>
       </c>
       <c r="BN85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>1286</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -17606,10 +17863,10 @@
         <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -17663,16 +17920,16 @@
         <v>1</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK86" t="n">
         <v>1</v>
@@ -17762,12 +18019,15 @@
         <v>1</v>
       </c>
       <c r="BN86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>1323</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -17800,10 +18060,10 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>1</v>
@@ -17911,10 +18171,10 @@
         <v>1</v>
       </c>
       <c r="AW87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY87" t="n">
         <v>1</v>
@@ -17962,12 +18222,15 @@
         <v>1</v>
       </c>
       <c r="BN87" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO87" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>1325</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -18162,12 +18425,15 @@
         <v>1</v>
       </c>
       <c r="BN88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>1328</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -18362,12 +18628,15 @@
         <v>1</v>
       </c>
       <c r="BN89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>1335</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -18562,12 +18831,15 @@
         <v>1</v>
       </c>
       <c r="BN90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>1342</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -18762,12 +19034,15 @@
         <v>1</v>
       </c>
       <c r="BN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>1346</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -18962,12 +19237,15 @@
         <v>1</v>
       </c>
       <c r="BN92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO92" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>1372</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -19162,12 +19440,15 @@
         <v>1</v>
       </c>
       <c r="BN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO93" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>1393</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -19362,12 +19643,15 @@
         <v>1</v>
       </c>
       <c r="BN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>1394</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -19562,12 +19846,15 @@
         <v>1</v>
       </c>
       <c r="BN95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO95" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>1431</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -19762,12 +20049,15 @@
         <v>1</v>
       </c>
       <c r="BN96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>1438</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -19962,12 +20252,15 @@
         <v>1</v>
       </c>
       <c r="BN97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -20162,12 +20455,15 @@
         <v>1</v>
       </c>
       <c r="BN98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>1444</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -20362,12 +20658,15 @@
         <v>1</v>
       </c>
       <c r="BN99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>1445</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -20562,12 +20861,15 @@
         <v>1</v>
       </c>
       <c r="BN100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>1446</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -20762,12 +21064,15 @@
         <v>1</v>
       </c>
       <c r="BN101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>1448</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -20962,12 +21267,15 @@
         <v>1</v>
       </c>
       <c r="BN102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>1450</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -21162,12 +21470,15 @@
         <v>1</v>
       </c>
       <c r="BN103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>1451</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -21362,12 +21673,15 @@
         <v>1</v>
       </c>
       <c r="BN104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>1452</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -21562,12 +21876,15 @@
         <v>1</v>
       </c>
       <c r="BN105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>1455</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -21762,12 +22079,15 @@
         <v>1</v>
       </c>
       <c r="BN106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>1456</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -21962,12 +22282,15 @@
         <v>1</v>
       </c>
       <c r="BN107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>1457</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -22162,12 +22485,15 @@
         <v>1</v>
       </c>
       <c r="BN108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>1458</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -22362,12 +22688,15 @@
         <v>1</v>
       </c>
       <c r="BN109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>1460</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -22562,12 +22891,15 @@
         <v>1</v>
       </c>
       <c r="BN110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>1463</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -22762,12 +23094,15 @@
         <v>1</v>
       </c>
       <c r="BN111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>1467</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -22962,12 +23297,15 @@
         <v>1</v>
       </c>
       <c r="BN112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>1469</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -23162,12 +23500,15 @@
         <v>1</v>
       </c>
       <c r="BN113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>1471</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -23362,12 +23703,15 @@
         <v>1</v>
       </c>
       <c r="BN114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>1477</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -23562,12 +23906,15 @@
         <v>1</v>
       </c>
       <c r="BN115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>1478</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -23762,6 +24109,9 @@
         <v>1</v>
       </c>
       <c r="BN116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO116" t="n">
         <v>1</v>
       </c>
     </row>
